--- a/tests/test_protocol_multi_task.xlsx
+++ b/tests/test_protocol_multi_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E1B9B-D25C-D045-8909-15BE0D5857B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E3C443-3C30-7741-97E9-8A5E32A82FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Pump</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>F.0.1.22_3</t>
+  </si>
+  <si>
+    <t>Dose multiplier interval</t>
   </si>
 </sst>
 </file>
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,14 +609,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -656,41 +660,47 @@
         <v>10</v>
       </c>
       <c r="H2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>90</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <v>6.8</v>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="12">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
+      <c r="M2" s="13">
         <v>15</v>
       </c>
-      <c r="M2" s="13">
+      <c r="N2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="13">
         <v>2</v>
       </c>
-      <c r="N2" s="14">
+      <c r="P2" s="14">
         <v>80</v>
       </c>
-      <c r="O2" s="15">
+      <c r="Q2" s="15">
         <v>9.5</v>
       </c>
-      <c r="P2" s="15">
+      <c r="R2" s="15">
         <v>11</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="S2" s="16">
         <v>20</v>
       </c>
-      <c r="R2" s="16">
+      <c r="T2" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="U2" s="16">
         <v>3</v>
       </c>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
@@ -726,20 +736,20 @@
         <v>15</v>
       </c>
       <c r="H3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="13">
         <v>2</v>
       </c>
-      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -761,8 +771,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4"/>
+      <c r="I4" s="1"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>

--- a/tests/test_protocol_multi_task.xlsx
+++ b/tests/test_protocol_multi_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E3C443-3C30-7741-97E9-8A5E32A82FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E3D79-ABA2-D748-BFB7-D6FEAC2F0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/test_protocol_multi_task.xlsx
+++ b/tests/test_protocol_multi_task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E3D79-ABA2-D748-BFB7-D6FEAC2F0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA191614-9A82-3244-A0DB-D6A0BFDE24F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,14 +764,6 @@
       <c r="AF3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>

--- a/tests/test_protocol_multi_task.xlsx
+++ b/tests/test_protocol_multi_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA191614-9A82-3244-A0DB-D6A0BFDE24F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5839289-44FD-7749-AC95-F8E90C88A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12">
         <v>5.6</v>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E3" s="17">
         <v>5.6</v>

--- a/tests/test_protocol_multi_task.xlsx
+++ b/tests/test_protocol_multi_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snipr-my.sharepoint.com/personal/jsb_sniprbiome_com/Documents/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5839289-44FD-7749-AC95-F8E90C88A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A5839289-44FD-7749-AC95-F8E90C88A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C1CF47-BA95-AB4B-96FF-185CF880A088}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pump</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>F.0.1.22_3</t>
-  </si>
-  <si>
-    <t>Dose multiplier interval</t>
   </si>
 </sst>
 </file>
@@ -574,19 +571,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="9.6640625" style="7" customWidth="1"/>
-    <col min="30" max="32" width="11" style="7"/>
+    <col min="1" max="26" width="9.6640625" style="7" customWidth="1"/>
+    <col min="27" max="29" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -609,15 +606,14 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
+      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -633,11 +629,8 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -660,47 +653,41 @@
         <v>10</v>
       </c>
       <c r="H2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="J2" s="11">
+      <c r="I2" s="11">
         <v>90</v>
       </c>
+      <c r="J2" s="12">
+        <v>6.8</v>
+      </c>
       <c r="K2" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="L2" s="12">
         <v>9</v>
       </c>
+      <c r="L2" s="13">
+        <v>15</v>
+      </c>
       <c r="M2" s="13">
-        <v>15</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="13">
         <v>2</v>
       </c>
-      <c r="P2" s="14">
+      <c r="N2" s="14">
         <v>80</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="O2" s="15">
         <v>9.5</v>
       </c>
-      <c r="R2" s="15">
+      <c r="P2" s="15">
         <v>11</v>
       </c>
-      <c r="S2" s="16">
+      <c r="Q2" s="16">
         <v>20</v>
       </c>
-      <c r="T2" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="U2" s="16">
+      <c r="R2" s="16">
         <v>3</v>
       </c>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
@@ -709,11 +696,8 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -736,20 +720,20 @@
         <v>15</v>
       </c>
       <c r="H3" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="13">
         <v>2</v>
       </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -759,11 +743,9 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -784,11 +766,10 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P5"/>
+      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -801,11 +782,10 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P6"/>
+      <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -818,11 +798,10 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P7"/>
+      <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -835,11 +814,10 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P8"/>
+      <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -852,9 +830,6 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
